--- a/DateBase/orders/Dang Nguyen 195_2025-12-7.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2025-12-7.xlsx
@@ -726,6 +726,9 @@
       <c r="G2" t="str">
         <v>03051555102020151212105520152055158105575</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
